--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7382178538040829</v>
+        <v>0.738217853804083</v>
       </c>
       <c r="C4">
         <v>0.7094978488344654</v>
       </c>
       <c r="D4">
-        <v>0.8695055594474078</v>
+        <v>0.8695055594474079</v>
       </c>
       <c r="E4">
-        <v>0.8920694870009451</v>
+        <v>0.892069487000945</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -445,10 +445,10 @@
         <v>21.99443331386843</v>
       </c>
       <c r="D5">
-        <v>26.95467234286964</v>
+        <v>26.95467234286965</v>
       </c>
       <c r="E5">
-        <v>29.43829307103119</v>
+        <v>29.43829307103118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>39.1255462516164</v>
+        <v>39.12554625161641</v>
       </c>
       <c r="C6">
         <v>29.08941180221308</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>51.46165443786029</v>
+        <v>51.46165443786028</v>
       </c>
       <c r="C7">
         <v>37.06124301098588</v>
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>65.23308309024544</v>
+        <v>65.23308309024543</v>
       </c>
       <c r="C10">
         <v>86.69683632927055</v>
@@ -533,7 +533,7 @@
         <v>73.14791057177804</v>
       </c>
       <c r="E10">
-        <v>22.27258012849546</v>
+        <v>22.27258012849547</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -550,7 +550,7 @@
         <v>50.88550300645429</v>
       </c>
       <c r="E11">
-        <v>23.92240087875439</v>
+        <v>23.9224008787544</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>82.70823025815994</v>
+        <v>82.70823025815993</v>
       </c>
       <c r="C13">
         <v>93.5096747592179</v>
@@ -618,7 +618,7 @@
         <v>89.84471624577085</v>
       </c>
       <c r="E15">
-        <v>98.9892450155354</v>
+        <v>98.98924501553542</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,10 +646,10 @@
         <v>52.4709673538965</v>
       </c>
       <c r="C17">
-        <v>52.13020483813886</v>
+        <v>52.13020483813884</v>
       </c>
       <c r="D17">
-        <v>60.28768329788108</v>
+        <v>60.28768329788107</v>
       </c>
       <c r="E17">
         <v>55.32454963996508</v>
@@ -697,10 +697,10 @@
         <v>86.29395419281731</v>
       </c>
       <c r="C20">
-        <v>78.29160759075791</v>
+        <v>78.29160759075789</v>
       </c>
       <c r="D20">
-        <v>92.70626624671885</v>
+        <v>92.70626624671884</v>
       </c>
       <c r="E20">
         <v>97.12434124601457</v>
@@ -717,7 +717,7 @@
         <v>84.50522724081804</v>
       </c>
       <c r="D21">
-        <v>74.59957362040659</v>
+        <v>74.59957362040657</v>
       </c>
       <c r="E21">
         <v>43.25068321111586</v>
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>38.10367801990078</v>
+        <v>38.10367801990077</v>
       </c>
       <c r="C22">
         <v>33.71151953594461</v>
@@ -737,7 +737,7 @@
         <v>43.91131070063309</v>
       </c>
       <c r="E22">
-        <v>63.49432491801062</v>
+        <v>63.49432491801061</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -748,7 +748,7 @@
         <v>10.36239254509144</v>
       </c>
       <c r="C23">
-        <v>14.66244716757439</v>
+        <v>14.66244716757438</v>
       </c>
       <c r="D23">
         <v>16.97623745145411</v>
@@ -768,7 +768,7 @@
         <v>143.4065801616371</v>
       </c>
       <c r="D24">
-        <v>158.5863767056947</v>
+        <v>158.5863767056948</v>
       </c>
       <c r="E24">
         <v>128.8155931489345</v>
@@ -802,10 +802,10 @@
         <v>0.5975274173401545</v>
       </c>
       <c r="D26">
-        <v>0.720847166844067</v>
+        <v>0.7208471668440671</v>
       </c>
       <c r="E26">
-        <v>0.7667594830293724</v>
+        <v>0.7667594830293722</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -819,7 +819,7 @@
         <v>64.84308028776985</v>
       </c>
       <c r="D27">
-        <v>79.11973739267233</v>
+        <v>79.11973739267235</v>
       </c>
       <c r="E27">
         <v>78.93103343336648</v>
@@ -881,7 +881,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>198.5945306224664</v>
+        <v>198.5945306224663</v>
       </c>
       <c r="C31">
         <v>253.9003047515138</v>
@@ -901,7 +901,7 @@
         <v>124.9478674639629</v>
       </c>
       <c r="C32">
-        <v>123.851922211387</v>
+        <v>123.8519222113869</v>
       </c>
       <c r="D32">
         <v>161.1687223872718</v>
@@ -941,7 +941,7 @@
         <v>15.89187852691448</v>
       </c>
       <c r="E34">
-        <v>52.58077035996291</v>
+        <v>52.58077035996289</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -949,13 +949,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>66.26093580668073</v>
+        <v>66.26093580668075</v>
       </c>
       <c r="C35">
         <v>69.95104146889513</v>
       </c>
       <c r="D35">
-        <v>81.77775799902065</v>
+        <v>81.77775799902066</v>
       </c>
       <c r="E35">
         <v>100.4869442647027</v>
@@ -986,10 +986,10 @@
         <v>439.2391205607742</v>
       </c>
       <c r="C37">
-        <v>543.8056776574554</v>
+        <v>543.8056776574552</v>
       </c>
       <c r="D37">
-        <v>484.1454746600582</v>
+        <v>484.1454746600583</v>
       </c>
       <c r="E37">
         <v>256.1122122999739</v>
@@ -1003,7 +1003,7 @@
         <v>464.7582948187065</v>
       </c>
       <c r="C38">
-        <v>459.6638249540096</v>
+        <v>459.6638249540095</v>
       </c>
       <c r="D38">
         <v>467.3056320631866</v>
@@ -1017,16 +1017,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>21.4396601962073</v>
+        <v>21.43966019620731</v>
       </c>
       <c r="C39">
-        <v>36.37300842411602</v>
+        <v>36.37300842411601</v>
       </c>
       <c r="D39">
-        <v>26.07838450148754</v>
+        <v>26.07838450148755</v>
       </c>
       <c r="E39">
-        <v>6.569761494189386</v>
+        <v>6.569761494189387</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1034,7 +1034,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3.292379866858858</v>
+        <v>3.292379866858859</v>
       </c>
       <c r="C40">
         <v>3.449769975549906</v>
@@ -1085,16 +1085,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>424.5543347974851</v>
+        <v>424.5543347974852</v>
       </c>
       <c r="C43">
-        <v>342.256859890945</v>
+        <v>342.2568598909449</v>
       </c>
       <c r="D43">
         <v>454.0176217778258</v>
       </c>
       <c r="E43">
-        <v>912.043159656732</v>
+        <v>912.0431596567321</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>165.9780234209616</v>
+        <v>165.9780234209617</v>
       </c>
       <c r="C44">
-        <v>159.0322589904488</v>
+        <v>159.0322589904487</v>
       </c>
       <c r="D44">
         <v>176.2371082486434</v>
@@ -1119,10 +1119,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>94.36973554989096</v>
+        <v>94.36973554989093</v>
       </c>
       <c r="C45">
-        <v>126.5548240951611</v>
+        <v>126.554824095161</v>
       </c>
       <c r="D45">
         <v>172.3965048453986</v>
@@ -1145,7 +1145,7 @@
         <v>203.7372295859248</v>
       </c>
       <c r="E46">
-        <v>200.813698191914</v>
+        <v>200.8136981919139</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>49.34382843774015</v>
       </c>
       <c r="D47">
-        <v>80.76466866559019</v>
+        <v>80.76466866559018</v>
       </c>
       <c r="E47">
-        <v>165.7013592274471</v>
+        <v>165.701359227447</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1241,10 +1241,10 @@
         <v>86.30845562791815</v>
       </c>
       <c r="C52">
-        <v>76.54664116151338</v>
+        <v>76.54664116151336</v>
       </c>
       <c r="D52">
-        <v>96.30655033182362</v>
+        <v>96.3065503318236</v>
       </c>
       <c r="E52">
         <v>131.5247289220578</v>
@@ -1255,7 +1255,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>373.153826478156</v>
+        <v>373.1538264781561</v>
       </c>
       <c r="C53">
         <v>369.2616561508432</v>
@@ -1278,7 +1278,7 @@
         <v>404.205630773299</v>
       </c>
       <c r="D54">
-        <v>468.0277269319494</v>
+        <v>468.0277269319493</v>
       </c>
       <c r="E54">
         <v>421.3982359242584</v>
@@ -1306,10 +1306,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>49.11629125459177</v>
+        <v>49.11629125459178</v>
       </c>
       <c r="C56">
-        <v>40.87974262270618</v>
+        <v>40.87974262270617</v>
       </c>
       <c r="D56">
         <v>51.74273289519356</v>
@@ -1329,7 +1329,7 @@
         <v>303.4179021467349</v>
       </c>
       <c r="D57">
-        <v>375.4442510595592</v>
+        <v>375.4442510595591</v>
       </c>
       <c r="E57">
         <v>451.3398689443709</v>
@@ -1360,10 +1360,10 @@
         <v>27.704251221442</v>
       </c>
       <c r="C59">
-        <v>24.17721835427935</v>
+        <v>24.17721835427936</v>
       </c>
       <c r="D59">
-        <v>30.10030808150998</v>
+        <v>30.10030808150997</v>
       </c>
       <c r="E59">
         <v>37.6860865905732</v>
@@ -1374,7 +1374,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>215.7298902037079</v>
+        <v>215.729890203708</v>
       </c>
       <c r="C60">
         <v>225.1157039876391</v>
@@ -1391,16 +1391,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>66.03976230725753</v>
+        <v>66.03976230725755</v>
       </c>
       <c r="C61">
-        <v>63.91476017739502</v>
+        <v>63.91476017739503</v>
       </c>
       <c r="D61">
         <v>83.07054352875022</v>
       </c>
       <c r="E61">
-        <v>94.17971378809443</v>
+        <v>94.17971378809445</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1417,7 +1417,7 @@
         <v>122.6054391050079</v>
       </c>
       <c r="E62">
-        <v>110.6243492993302</v>
+        <v>110.6243492993303</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1428,13 +1428,13 @@
         <v>31.77377255450831</v>
       </c>
       <c r="C63">
-        <v>32.40308170112107</v>
+        <v>32.40308170112108</v>
       </c>
       <c r="D63">
         <v>47.47955730046873</v>
       </c>
       <c r="E63">
-        <v>54.28151301023036</v>
+        <v>54.28151301023038</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1442,16 +1442,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>31.07847743261112</v>
+        <v>31.07847743261111</v>
       </c>
       <c r="C64">
         <v>35.98851096820988</v>
       </c>
       <c r="D64">
-        <v>57.50349513544461</v>
+        <v>57.5034951354446</v>
       </c>
       <c r="E64">
-        <v>65.56307102035395</v>
+        <v>65.56307102035396</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1459,7 +1459,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>9.81425603135088</v>
+        <v>9.814256031350878</v>
       </c>
       <c r="C65">
         <v>7.917472413006175</v>
@@ -1476,13 +1476,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>368.0046895369791</v>
+        <v>368.004689536979</v>
       </c>
       <c r="C66">
         <v>364.8349097996772</v>
       </c>
       <c r="D66">
-        <v>357.1875799816621</v>
+        <v>357.1875799816622</v>
       </c>
       <c r="E66">
         <v>321.5917534480441</v>
@@ -1493,13 +1493,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>96.97312823509021</v>
+        <v>96.9731282350902</v>
       </c>
       <c r="C67">
         <v>73.04334939504024</v>
       </c>
       <c r="D67">
-        <v>90.62225278215824</v>
+        <v>90.6222527821582</v>
       </c>
       <c r="E67">
         <v>191.5384428649066</v>
@@ -1510,7 +1510,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>262.7172443016036</v>
+        <v>262.7172443016035</v>
       </c>
       <c r="C68">
         <v>290.7278187466178</v>
@@ -1519,7 +1519,7 @@
         <v>258.8450254932046</v>
       </c>
       <c r="E68">
-        <v>173.4329510465062</v>
+        <v>173.4329510465061</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1533,7 +1533,7 @@
         <v>277.5647277011529</v>
       </c>
       <c r="D69">
-        <v>267.651769844979</v>
+        <v>267.6517698449789</v>
       </c>
       <c r="E69">
         <v>241.8414682637709</v>
@@ -1578,13 +1578,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>28.9484833667146</v>
+        <v>28.94848336671459</v>
       </c>
       <c r="C72">
         <v>25.85059115951411</v>
       </c>
       <c r="D72">
-        <v>22.8731414933308</v>
+        <v>22.87314149333079</v>
       </c>
       <c r="E72">
         <v>20.57325178838683</v>
@@ -1595,16 +1595,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>55.48459311953633</v>
+        <v>55.48459311953631</v>
       </c>
       <c r="C73">
         <v>54.05123606080223</v>
       </c>
       <c r="D73">
-        <v>56.63825512634293</v>
+        <v>56.63825512634291</v>
       </c>
       <c r="E73">
-        <v>66.61814864810975</v>
+        <v>66.61814864810974</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1621,7 +1621,7 @@
         <v>20.69474706539453</v>
       </c>
       <c r="E74">
-        <v>22.53260910156654</v>
+        <v>22.53260910156653</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1629,7 +1629,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>53.72707572278124</v>
+        <v>53.72707572278122</v>
       </c>
       <c r="C75">
         <v>43.16576907179935</v>
@@ -1638,7 +1638,7 @@
         <v>46.63401143606728</v>
       </c>
       <c r="E75">
-        <v>61.69803139299201</v>
+        <v>61.69803139299199</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1646,7 +1646,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>134.6215191969488</v>
+        <v>134.6215191969487</v>
       </c>
       <c r="C76">
         <v>160.6953686690886</v>
@@ -1666,10 +1666,10 @@
         <v>241.7520715850787</v>
       </c>
       <c r="C77">
-        <v>244.7045774795863</v>
+        <v>244.7045774795862</v>
       </c>
       <c r="D77">
-        <v>239.4593968012881</v>
+        <v>239.4593968012882</v>
       </c>
       <c r="E77">
         <v>225.1838416987302</v>
@@ -1683,13 +1683,13 @@
         <v>48.11570356790401</v>
       </c>
       <c r="C78">
-        <v>46.44855405862518</v>
+        <v>46.44855405862516</v>
       </c>
       <c r="D78">
         <v>45.76335138869063</v>
       </c>
       <c r="E78">
-        <v>44.45689578601539</v>
+        <v>44.4568957860154</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1700,13 +1700,13 @@
         <v>5.867768727793172</v>
       </c>
       <c r="C79">
-        <v>5.66445781202746</v>
+        <v>5.664457812027459</v>
       </c>
       <c r="D79">
         <v>6.385583914701018</v>
       </c>
       <c r="E79">
-        <v>5.798725537306356</v>
+        <v>5.798725537306357</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1731,7 +1731,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>204.209192367164</v>
+        <v>204.2091923671639</v>
       </c>
       <c r="C81">
         <v>217.2183050762163</v>
@@ -1884,16 +1884,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>641.058222802693</v>
+        <v>641.0582228026931</v>
       </c>
       <c r="C90">
         <v>583.7275479622999</v>
       </c>
       <c r="D90">
-        <v>610.0735640215689</v>
+        <v>610.0735640215688</v>
       </c>
       <c r="E90">
-        <v>730.1073386209305</v>
+        <v>730.1073386209304</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1904,7 +1904,7 @@
         <v>380.0811843333156</v>
       </c>
       <c r="C91">
-        <v>360.4464999297451</v>
+        <v>360.446499929745</v>
       </c>
       <c r="D91">
         <v>424.7830616133857</v>
@@ -1921,13 +1921,13 @@
         <v>302.9131604523678</v>
       </c>
       <c r="C92">
-        <v>276.0602319358487</v>
+        <v>276.0602319358486</v>
       </c>
       <c r="D92">
         <v>334.242687419718</v>
       </c>
       <c r="E92">
-        <v>570.3582584690582</v>
+        <v>570.3582584690581</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1938,7 +1938,7 @@
         <v>25.39408588589876</v>
       </c>
       <c r="C93">
-        <v>31.32220816448049</v>
+        <v>31.32220816448048</v>
       </c>
       <c r="D93">
         <v>35.52907616308582</v>
@@ -1952,7 +1952,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>146.0213573358224</v>
+        <v>146.0213573358225</v>
       </c>
       <c r="C94">
         <v>143.6755989337223</v>
@@ -1989,7 +1989,7 @@
         <v>289.0315828838565</v>
       </c>
       <c r="C96">
-        <v>266.5789403172046</v>
+        <v>266.5789403172045</v>
       </c>
       <c r="D96">
         <v>260.3741867258946</v>
@@ -2006,13 +2006,13 @@
         <v>120.6219079580191</v>
       </c>
       <c r="C97">
-        <v>83.52588843861463</v>
+        <v>83.52588843861461</v>
       </c>
       <c r="D97">
         <v>110.6476943364673</v>
       </c>
       <c r="E97">
-        <v>295.5346752807072</v>
+        <v>295.5346752807071</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2026,10 +2026,10 @@
         <v>310.9039995224813</v>
       </c>
       <c r="D98">
-        <v>366.9104502105853</v>
+        <v>366.9104502105852</v>
       </c>
       <c r="E98">
-        <v>545.2259834419722</v>
+        <v>545.2259834419721</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2088,16 +2088,16 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>35.40759033436984</v>
+        <v>35.40759033436985</v>
       </c>
       <c r="C102">
-        <v>16.2474304591925</v>
+        <v>16.24743045919249</v>
       </c>
       <c r="D102">
         <v>20.7366387663519</v>
       </c>
       <c r="E102">
-        <v>78.72067089499572</v>
+        <v>78.72067089499571</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2108,7 +2108,7 @@
         <v>333.6489366961009</v>
       </c>
       <c r="C103">
-        <v>345.7271332196216</v>
+        <v>345.7271332196214</v>
       </c>
       <c r="D103">
         <v>289.5386160571171</v>
@@ -2125,7 +2125,7 @@
         <v>435.5705139000972</v>
       </c>
       <c r="C104">
-        <v>391.7587911837072</v>
+        <v>391.7587911837069</v>
       </c>
       <c r="D104">
         <v>453.5775589427191</v>
@@ -2142,7 +2142,7 @@
         <v>138.7079497106142</v>
       </c>
       <c r="C105">
-        <v>124.4790759341597</v>
+        <v>124.4790759341596</v>
       </c>
       <c r="D105">
         <v>139.2370050831834</v>
@@ -2165,7 +2165,7 @@
         <v>56.61305677231453</v>
       </c>
       <c r="E106">
-        <v>218.3925164937061</v>
+        <v>218.392516493706</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2182,7 +2182,7 @@
         <v>183.6779175279538</v>
       </c>
       <c r="E107">
-        <v>450.8399969201755</v>
+        <v>450.8399969201753</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2196,10 +2196,10 @@
         <v>1.507656754147796</v>
       </c>
       <c r="D108">
-        <v>1.351708178482702</v>
+        <v>1.351708178482701</v>
       </c>
       <c r="E108">
-        <v>2.277692530420679</v>
+        <v>2.277692530420678</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2230,7 +2230,7 @@
         <v>1.075407401644837</v>
       </c>
       <c r="D110">
-        <v>1.092987069003053</v>
+        <v>1.092987069003054</v>
       </c>
       <c r="E110">
         <v>0.9941676369051943</v>
@@ -2244,7 +2244,7 @@
         <v>505.7161032651825</v>
       </c>
       <c r="C111">
-        <v>575.6738845054077</v>
+        <v>575.6738845054076</v>
       </c>
       <c r="D111">
         <v>505.0714050108502</v>
@@ -2261,7 +2261,7 @@
         <v>245.6664544365336</v>
       </c>
       <c r="C112">
-        <v>258.1864534911404</v>
+        <v>258.1864534911403</v>
       </c>
       <c r="D112">
         <v>273.9982684583424</v>
@@ -2284,7 +2284,7 @@
         <v>222.4686409314854</v>
       </c>
       <c r="E113">
-        <v>62.03099601431982</v>
+        <v>62.03099601431983</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2326,7 +2326,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>458.0060642789638</v>
+        <v>458.0060642789639</v>
       </c>
       <c r="C116">
         <v>459.6501255334695</v>
@@ -2335,7 +2335,7 @@
         <v>470.5622436567185</v>
       </c>
       <c r="E116">
-        <v>466.5273048586192</v>
+        <v>466.5273048586191</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2346,7 +2346,7 @@
         <v>62.73265166519546</v>
       </c>
       <c r="C117">
-        <v>55.14344934493473</v>
+        <v>55.14344934493472</v>
       </c>
       <c r="D117">
         <v>68.16190104680707</v>
@@ -2386,7 +2386,7 @@
         <v>13.83371736619454</v>
       </c>
       <c r="E119">
-        <v>38.33664745312856</v>
+        <v>38.33664745312854</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,10 +2394,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>280.7314685396548</v>
+        <v>280.7314685396549</v>
       </c>
       <c r="C120">
-        <v>206.7227770403232</v>
+        <v>206.7227770403231</v>
       </c>
       <c r="D120">
         <v>278.5293451647</v>
@@ -2411,10 +2411,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>555.4472627534598</v>
+        <v>555.4472627534599</v>
       </c>
       <c r="C121">
-        <v>580.0279860645961</v>
+        <v>580.027986064596</v>
       </c>
       <c r="D121">
         <v>525.1126722459936</v>
@@ -2471,7 +2471,7 @@
         <v>241.3191968188105</v>
       </c>
       <c r="E124">
-        <v>486.3942488760975</v>
+        <v>486.3942488760974</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,13 +2479,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>651.2526364525073</v>
+        <v>651.2526364525074</v>
       </c>
       <c r="C125">
         <v>730.714892529379</v>
       </c>
       <c r="D125">
-        <v>633.2789405093565</v>
+        <v>633.2789405093564</v>
       </c>
       <c r="E125">
         <v>396.437206881677</v>
@@ -2496,7 +2496,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>39.57635619416816</v>
+        <v>39.57635619416817</v>
       </c>
       <c r="C126">
         <v>29.60024190483544</v>
@@ -2513,7 +2513,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>747.4533690621161</v>
+        <v>747.4533690621162</v>
       </c>
       <c r="C127">
         <v>754.4620205122973</v>
@@ -2522,7 +2522,7 @@
         <v>617.6048108893414</v>
       </c>
       <c r="E127">
-        <v>407.4733587825392</v>
+        <v>407.4733587825391</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2533,7 +2533,7 @@
         <v>57.51987697308471</v>
       </c>
       <c r="C128">
-        <v>19.74983782634785</v>
+        <v>19.74983782634784</v>
       </c>
       <c r="D128">
         <v>27.22826950847173</v>
@@ -2547,10 +2547,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>54.84453385805751</v>
+        <v>54.84453385805753</v>
       </c>
       <c r="C129">
-        <v>43.73178375834167</v>
+        <v>43.73178375834166</v>
       </c>
       <c r="D129">
         <v>58.346291803868</v>
@@ -2564,7 +2564,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>285.4939934881665</v>
+        <v>285.4939934881666</v>
       </c>
       <c r="C130">
         <v>274.6430647812087</v>
@@ -2581,10 +2581,10 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>486.9610149819006</v>
+        <v>486.9610149819009</v>
       </c>
       <c r="C131">
-        <v>489.5250233784095</v>
+        <v>489.5250233784094</v>
       </c>
       <c r="D131">
         <v>375.1160123888813</v>
@@ -2598,13 +2598,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>848.4688234645045</v>
+        <v>848.4688234645046</v>
       </c>
       <c r="C132">
         <v>742.5619972918306</v>
       </c>
       <c r="D132">
-        <v>524.0103038934072</v>
+        <v>524.0103038934071</v>
       </c>
       <c r="E132">
         <v>285.6147274270725</v>
@@ -2615,7 +2615,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>296.9312821964912</v>
+        <v>296.9312821964913</v>
       </c>
       <c r="C133">
         <v>260.2946136605278</v>
@@ -2632,16 +2632,16 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>125.0641861879376</v>
+        <v>125.0641861879377</v>
       </c>
       <c r="C134">
-        <v>134.994321483284</v>
+        <v>134.9943214832839</v>
       </c>
       <c r="D134">
         <v>186.2642911676685</v>
       </c>
       <c r="E134">
-        <v>384.4387832538116</v>
+        <v>384.4387832538115</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2652,10 +2652,10 @@
         <v>875.6835963045427</v>
       </c>
       <c r="C135">
-        <v>836.8789542558659</v>
+        <v>836.8789542558657</v>
       </c>
       <c r="D135">
-        <v>669.5046706675971</v>
+        <v>669.5046706675972</v>
       </c>
       <c r="E135">
         <v>432.3963190584906</v>
@@ -2669,7 +2669,7 @@
         <v>689.7101012056791</v>
       </c>
       <c r="C136">
-        <v>656.7501021057511</v>
+        <v>656.7501021057509</v>
       </c>
       <c r="D136">
         <v>569.3979269517943</v>
@@ -2683,7 +2683,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>349.0131878427777</v>
+        <v>349.0131878427778</v>
       </c>
       <c r="C137">
         <v>312.57397151355</v>
@@ -2717,7 +2717,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>458.0244443269577</v>
+        <v>458.0244443269578</v>
       </c>
       <c r="C139">
         <v>433.4123714032135</v>
@@ -2726,7 +2726,7 @@
         <v>349.2692839085631</v>
       </c>
       <c r="E139">
-        <v>226.6672947913215</v>
+        <v>226.6672947913214</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2743,7 +2743,7 @@
         <v>94.92931607503077</v>
       </c>
       <c r="E140">
-        <v>63.21758844699576</v>
+        <v>63.21758844699574</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2751,7 +2751,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>847.0315066320451</v>
+        <v>847.0315066320453</v>
       </c>
       <c r="C141">
         <v>957.962858288411</v>
@@ -2768,10 +2768,10 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>268.569844647307</v>
+        <v>268.5698446473071</v>
       </c>
       <c r="C142">
-        <v>251.3501637288605</v>
+        <v>251.3501637288604</v>
       </c>
       <c r="D142">
         <v>201.9435424793103</v>
@@ -2805,7 +2805,7 @@
         <v>463.4347521350703</v>
       </c>
       <c r="C144">
-        <v>540.0992090369185</v>
+        <v>540.0992090369184</v>
       </c>
       <c r="D144">
         <v>486.5167995193843</v>
@@ -2839,7 +2839,7 @@
         <v>65.95411936069783</v>
       </c>
       <c r="C146">
-        <v>74.49962725251862</v>
+        <v>74.49962725251861</v>
       </c>
       <c r="D146">
         <v>63.96474870851304</v>
@@ -2859,10 +2859,10 @@
         <v>100.9906407971712</v>
       </c>
       <c r="D147">
-        <v>119.5246196348055</v>
+        <v>119.5246196348054</v>
       </c>
       <c r="E147">
-        <v>187.6432327010633</v>
+        <v>187.6432327010634</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2873,10 +2873,10 @@
         <v>750.7359181983326</v>
       </c>
       <c r="C148">
-        <v>830.4511160686378</v>
+        <v>830.4511160686377</v>
       </c>
       <c r="D148">
-        <v>714.9726223901149</v>
+        <v>714.9726223901148</v>
       </c>
       <c r="E148">
         <v>455.3577772979108</v>
@@ -2887,10 +2887,10 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>603.6555268172062</v>
+        <v>603.6555268172064</v>
       </c>
       <c r="C149">
-        <v>624.8534849541041</v>
+        <v>624.853484954104</v>
       </c>
       <c r="D149">
         <v>430.0335981764469</v>
@@ -2904,16 +2904,16 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>367.7441715093326</v>
+        <v>367.7441715093327</v>
       </c>
       <c r="C150">
         <v>321.3801483700596</v>
       </c>
       <c r="D150">
-        <v>267.3926860456113</v>
+        <v>267.3926860456112</v>
       </c>
       <c r="E150">
-        <v>199.3632612772845</v>
+        <v>199.3632612772844</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2921,7 +2921,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>96.03362292690443</v>
+        <v>96.03362292690446</v>
       </c>
       <c r="C151">
         <v>121.4211074578607</v>
@@ -2930,7 +2930,7 @@
         <v>115.9543600962022</v>
       </c>
       <c r="E151">
-        <v>80.28159919999197</v>
+        <v>80.28159919999196</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2938,7 +2938,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>597.708181725411</v>
+        <v>597.7081817254112</v>
       </c>
       <c r="C152">
         <v>561.7084118139458</v>
@@ -2961,7 +2961,7 @@
         <v>18.3896876275354</v>
       </c>
       <c r="D153">
-        <v>20.09459448299383</v>
+        <v>20.09459448299382</v>
       </c>
       <c r="E153">
         <v>22.13722008319803</v>
@@ -2975,10 +2975,10 @@
         <v>476.2268152603349</v>
       </c>
       <c r="C154">
-        <v>446.2564197615258</v>
+        <v>446.2564197615256</v>
       </c>
       <c r="D154">
-        <v>521.2774215882516</v>
+        <v>521.2774215882515</v>
       </c>
       <c r="E154">
         <v>773.7485495746358</v>
@@ -2992,7 +2992,7 @@
         <v>467.7328474274728</v>
       </c>
       <c r="C155">
-        <v>485.1263417076112</v>
+        <v>485.1263417076111</v>
       </c>
       <c r="D155">
         <v>527.1762767827281</v>
@@ -3009,10 +3009,10 @@
         <v>508.3212350141544</v>
       </c>
       <c r="C156">
-        <v>595.382328459341</v>
+        <v>595.3823284593408</v>
       </c>
       <c r="D156">
-        <v>699.7066946388937</v>
+        <v>699.7066946388936</v>
       </c>
       <c r="E156">
         <v>769.4497050288794</v>
@@ -3026,13 +3026,13 @@
         <v>559.0082702816164</v>
       </c>
       <c r="C157">
-        <v>610.509753328902</v>
+        <v>610.5097533289018</v>
       </c>
       <c r="D157">
-        <v>638.7015746532171</v>
+        <v>638.7015746532172</v>
       </c>
       <c r="E157">
-        <v>591.0004813257347</v>
+        <v>591.0004813257345</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3040,7 +3040,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>809.3602100279958</v>
+        <v>809.3602100279959</v>
       </c>
       <c r="C158">
         <v>785.1894838640666</v>
@@ -3057,10 +3057,10 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>709.0379910254472</v>
+        <v>709.0379910254474</v>
       </c>
       <c r="C159">
-        <v>724.5185155329588</v>
+        <v>724.5185155329584</v>
       </c>
       <c r="D159">
         <v>601.2229240536968</v>
@@ -3074,7 +3074,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>229.3183527902811</v>
+        <v>229.3183527902812</v>
       </c>
       <c r="C160">
         <v>176.9301774518655</v>
@@ -3083,7 +3083,7 @@
         <v>227.75788740105</v>
       </c>
       <c r="E160">
-        <v>454.7610946816143</v>
+        <v>454.7610946816142</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3094,7 +3094,7 @@
         <v>870.2384873887713</v>
       </c>
       <c r="C161">
-        <v>771.2347092077471</v>
+        <v>771.2347092077468</v>
       </c>
       <c r="D161">
         <v>1001.24274005463</v>
@@ -3125,10 +3125,10 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>705.4079229258921</v>
+        <v>705.4079229258923</v>
       </c>
       <c r="C163">
-        <v>700.3848476933371</v>
+        <v>700.384847693337</v>
       </c>
       <c r="D163">
         <v>506.3552434855572</v>
@@ -3148,7 +3148,7 @@
         <v>56.07232447374225</v>
       </c>
       <c r="D164">
-        <v>77.4875718567784</v>
+        <v>77.48757185677839</v>
       </c>
       <c r="E164">
         <v>208.4226054378228</v>
@@ -3162,13 +3162,13 @@
         <v>829.912961121003</v>
       </c>
       <c r="C165">
-        <v>859.5383421847453</v>
+        <v>859.5383421847451</v>
       </c>
       <c r="D165">
         <v>700.6720266739776</v>
       </c>
       <c r="E165">
-        <v>401.5463070513663</v>
+        <v>401.5463070513664</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,7 +3176,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>261.0436484247574</v>
+        <v>261.0436484247575</v>
       </c>
       <c r="C166">
         <v>320.5381609035232</v>
@@ -3185,7 +3185,7 @@
         <v>387.3159258558932</v>
       </c>
       <c r="E166">
-        <v>426.9262090771863</v>
+        <v>426.9262090771864</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3244,10 +3244,10 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>495.8676027379318</v>
+        <v>495.867602737932</v>
       </c>
       <c r="C170">
-        <v>485.7148840358876</v>
+        <v>485.7148840358875</v>
       </c>
       <c r="D170">
         <v>527.079986958454</v>
@@ -3264,7 +3264,7 @@
         <v>87.2376545646557</v>
       </c>
       <c r="C171">
-        <v>77.39725372522702</v>
+        <v>77.397253725227</v>
       </c>
       <c r="D171">
         <v>89.895283283567</v>
@@ -3281,7 +3281,7 @@
         <v>247.0414354021514</v>
       </c>
       <c r="C172">
-        <v>283.5506989812899</v>
+        <v>283.5506989812898</v>
       </c>
       <c r="D172">
         <v>269.2522120481548</v>
@@ -3295,13 +3295,13 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>581.5977874702523</v>
+        <v>581.5977874702525</v>
       </c>
       <c r="C173">
-        <v>584.4395828209647</v>
+        <v>584.4395828209645</v>
       </c>
       <c r="D173">
-        <v>556.0448818936698</v>
+        <v>556.0448818936696</v>
       </c>
       <c r="E173">
         <v>501.4330045280039</v>
@@ -3312,7 +3312,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>235.0262511052675</v>
+        <v>235.0262511052676</v>
       </c>
       <c r="C174">
         <v>299.7043978643391</v>
@@ -3329,13 +3329,13 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>12.49068395240128</v>
+        <v>12.49068395240129</v>
       </c>
       <c r="C175">
         <v>11.70485412018561</v>
       </c>
       <c r="D175">
-        <v>11.02649592447317</v>
+        <v>11.02649592447318</v>
       </c>
       <c r="E175">
         <v>10.64132381946432</v>
@@ -3346,10 +3346,10 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>688.3209749681065</v>
+        <v>688.3209749681067</v>
       </c>
       <c r="C176">
-        <v>703.7241812207117</v>
+        <v>703.7241812207116</v>
       </c>
       <c r="D176">
         <v>630.1616375992663</v>
@@ -3363,7 +3363,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>582.0776717710589</v>
+        <v>582.077671771059</v>
       </c>
       <c r="C177">
         <v>645.7567857330088</v>
@@ -3372,7 +3372,7 @@
         <v>567.4812615680781</v>
       </c>
       <c r="E177">
-        <v>390.2894923505904</v>
+        <v>390.2894923505905</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3383,7 +3383,7 @@
         <v>468.838155798567</v>
       </c>
       <c r="C178">
-        <v>477.1734321678379</v>
+        <v>477.1734321678378</v>
       </c>
       <c r="D178">
         <v>362.4110392434544</v>
@@ -3406,7 +3406,7 @@
         <v>97.58420699566962</v>
       </c>
       <c r="E179">
-        <v>605.9132039253593</v>
+        <v>605.9132039253592</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3417,7 +3417,7 @@
         <v>23.90981221403797</v>
       </c>
       <c r="C180">
-        <v>25.06108609433072</v>
+        <v>25.06108609433071</v>
       </c>
       <c r="D180">
         <v>22.66278400544099</v>
@@ -3451,10 +3451,10 @@
         <v>3.75038358125462</v>
       </c>
       <c r="C182">
-        <v>3.889572309334122</v>
+        <v>3.889572309334121</v>
       </c>
       <c r="D182">
-        <v>3.682108611786619</v>
+        <v>3.682108611786618</v>
       </c>
       <c r="E182">
         <v>3.209326602519654</v>
@@ -3502,10 +3502,10 @@
         <v>728.7709969310955</v>
       </c>
       <c r="C185">
-        <v>597.5725326326411</v>
+        <v>597.572532632641</v>
       </c>
       <c r="D185">
-        <v>788.1597255341007</v>
+        <v>788.1597255341005</v>
       </c>
       <c r="E185">
         <v>1840.464206781901</v>
@@ -3516,10 +3516,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>443.4575230222067</v>
+        <v>443.4575230222068</v>
       </c>
       <c r="C186">
-        <v>379.4682070639411</v>
+        <v>379.468207063941</v>
       </c>
       <c r="D186">
         <v>433.6853124028213</v>
@@ -3536,13 +3536,13 @@
         <v>240.3706572453395</v>
       </c>
       <c r="C187">
-        <v>208.6248903236549</v>
+        <v>208.6248903236548</v>
       </c>
       <c r="D187">
         <v>305.6401743638634</v>
       </c>
       <c r="E187">
-        <v>880.4236767197507</v>
+        <v>880.4236767197505</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3550,7 +3550,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>2.406686211848982</v>
+        <v>2.406686211848981</v>
       </c>
       <c r="C188">
         <v>2.519137179492314</v>
@@ -3567,7 +3567,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1.253766835991998</v>
+        <v>1.253766835991997</v>
       </c>
       <c r="C189">
         <v>1.301809663145913</v>
@@ -3618,10 +3618,10 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>92.97355610432942</v>
+        <v>92.97355610432943</v>
       </c>
       <c r="C192">
-        <v>96.73668098806343</v>
+        <v>96.73668098806341</v>
       </c>
       <c r="D192">
         <v>131.9553520316311</v>
@@ -3638,13 +3638,13 @@
         <v>516.5342589955131</v>
       </c>
       <c r="C193">
-        <v>395.0156530391176</v>
+        <v>395.0156530391175</v>
       </c>
       <c r="D193">
         <v>435.46941409339</v>
       </c>
       <c r="E193">
-        <v>676.0716441570221</v>
+        <v>676.071644157022</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3652,16 +3652,16 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>346.0870777724328</v>
+        <v>346.0870777724329</v>
       </c>
       <c r="C194">
-        <v>342.9414848748042</v>
+        <v>342.9414848748041</v>
       </c>
       <c r="D194">
         <v>351.6568681040095</v>
       </c>
       <c r="E194">
-        <v>369.9192552154861</v>
+        <v>369.919255215486</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3672,7 +3672,7 @@
         <v>177.3907771660371</v>
       </c>
       <c r="C195">
-        <v>210.6683374219555</v>
+        <v>210.6683374219554</v>
       </c>
       <c r="D195">
         <v>170.6884327625332</v>
@@ -3689,7 +3689,7 @@
         <v>569.691517605003</v>
       </c>
       <c r="C196">
-        <v>618.7934682083345</v>
+        <v>618.7934682083344</v>
       </c>
       <c r="D196">
         <v>446.3792327807543</v>
@@ -3706,7 +3706,7 @@
         <v>464.2822239946045</v>
       </c>
       <c r="C197">
-        <v>450.2799634997863</v>
+        <v>450.2799634997862</v>
       </c>
       <c r="D197">
         <v>373.3312270025474</v>
@@ -3720,7 +3720,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>147.038182979125</v>
+        <v>147.0381829791251</v>
       </c>
       <c r="C198">
         <v>160.3106140438306</v>
@@ -3737,10 +3737,10 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>637.5669975126522</v>
+        <v>637.5669975126523</v>
       </c>
       <c r="C199">
-        <v>710.8932976679447</v>
+        <v>710.8932976679444</v>
       </c>
       <c r="D199">
         <v>567.2872701504465</v>
@@ -3757,7 +3757,7 @@
         <v>599.0290751194643</v>
       </c>
       <c r="C200">
-        <v>633.2497428523343</v>
+        <v>633.2497428523341</v>
       </c>
       <c r="D200">
         <v>504.6879538451955</v>
@@ -3780,7 +3780,7 @@
         <v>5.83999626788547</v>
       </c>
       <c r="E201">
-        <v>3.035314817577931</v>
+        <v>3.03531481757793</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3822,10 +3822,10 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>593.3261232201289</v>
+        <v>593.326123220129</v>
       </c>
       <c r="C204">
-        <v>605.1979636864809</v>
+        <v>605.1979636864806</v>
       </c>
       <c r="D204">
         <v>556.9506634905401</v>
@@ -3839,7 +3839,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>105.1498071253536</v>
+        <v>105.1498071253537</v>
       </c>
       <c r="C205">
         <v>78.56155306041266</v>
@@ -3876,13 +3876,13 @@
         <v>401.6999451488752</v>
       </c>
       <c r="C207">
-        <v>330.3223521103105</v>
+        <v>330.3223521103104</v>
       </c>
       <c r="D207">
         <v>222.5078104606941</v>
       </c>
       <c r="E207">
-        <v>75.80753962739692</v>
+        <v>75.80753962739693</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3907,16 +3907,16 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>90.47071941525367</v>
+        <v>90.47071941525368</v>
       </c>
       <c r="C209">
         <v>111.0239152823258</v>
       </c>
       <c r="D209">
-        <v>86.02258175481272</v>
+        <v>86.02258175481273</v>
       </c>
       <c r="E209">
-        <v>33.54079323261406</v>
+        <v>33.54079323261405</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3924,10 +3924,10 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>419.8558748731181</v>
+        <v>419.8558748731182</v>
       </c>
       <c r="C210">
-        <v>430.9415856188621</v>
+        <v>430.941585618862</v>
       </c>
       <c r="D210">
         <v>375.3058954922467</v>
@@ -3984,7 +3984,7 @@
         <v>253.4899106514236</v>
       </c>
       <c r="E213">
-        <v>92.7354368257477</v>
+        <v>92.73543682574771</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4001,7 +4001,7 @@
         <v>263.106137624883</v>
       </c>
       <c r="E214">
-        <v>82.5719829140854</v>
+        <v>82.57198291408541</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4046,7 +4046,7 @@
         <v>453.4285631115955</v>
       </c>
       <c r="C217">
-        <v>490.8208477588265</v>
+        <v>490.8208477588263</v>
       </c>
       <c r="D217">
         <v>415.683322216454</v>
@@ -4077,7 +4077,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>444.5657021356101</v>
+        <v>444.5657021356102</v>
       </c>
       <c r="C219">
         <v>482.8002569228901</v>
@@ -4094,10 +4094,10 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>299.9070105925822</v>
+        <v>299.9070105925823</v>
       </c>
       <c r="C220">
-        <v>343.5445490599022</v>
+        <v>343.5445490599021</v>
       </c>
       <c r="D220">
         <v>359.0134447002608</v>
@@ -4117,7 +4117,7 @@
         <v>533.402693108427</v>
       </c>
       <c r="D221">
-        <v>568.4701313314633</v>
+        <v>568.4701313314632</v>
       </c>
       <c r="E221">
         <v>504.2554433389875</v>
@@ -4165,7 +4165,7 @@
         <v>480.2073634396693</v>
       </c>
       <c r="C224">
-        <v>502.5413839289492</v>
+        <v>502.5413839289491</v>
       </c>
       <c r="D224">
         <v>545.0195796613913</v>
@@ -4199,7 +4199,7 @@
         <v>338.8116875046555</v>
       </c>
       <c r="C226">
-        <v>348.7400472383751</v>
+        <v>348.740047238375</v>
       </c>
       <c r="D226">
         <v>350.7748007027199</v>
@@ -4219,10 +4219,10 @@
         <v>16.61500837811287</v>
       </c>
       <c r="D227">
-        <v>8.675500360380511</v>
+        <v>8.675500360380513</v>
       </c>
       <c r="E227">
-        <v>1.310522348215217</v>
+        <v>1.310522348215216</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4250,7 +4250,7 @@
         <v>571.8565879943305</v>
       </c>
       <c r="C229">
-        <v>638.1361852766632</v>
+        <v>638.1361852766629</v>
       </c>
       <c r="D229">
         <v>520.9027964218637</v>
@@ -4284,13 +4284,13 @@
         <v>142.7157660973175</v>
       </c>
       <c r="C231">
-        <v>135.9819130977653</v>
+        <v>135.9819130977652</v>
       </c>
       <c r="D231">
-        <v>176.6804485576646</v>
+        <v>176.6804485576647</v>
       </c>
       <c r="E231">
-        <v>277.531513428513</v>
+        <v>277.5315134285131</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4307,7 +4307,7 @@
         <v>168.8341619274626</v>
       </c>
       <c r="E232">
-        <v>295.7697565652219</v>
+        <v>295.7697565652218</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4332,16 +4332,16 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>602.0338010343625</v>
+        <v>602.0338010343626</v>
       </c>
       <c r="C234">
-        <v>589.6802343348331</v>
+        <v>589.680234334833</v>
       </c>
       <c r="D234">
         <v>661.623645887821</v>
       </c>
       <c r="E234">
-        <v>828.6750123870248</v>
+        <v>828.6750123870246</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4349,7 +4349,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>29.47018606461914</v>
+        <v>29.47018606461915</v>
       </c>
       <c r="C235">
         <v>32.31124571697715</v>
@@ -4358,7 +4358,7 @@
         <v>38.23744363274623</v>
       </c>
       <c r="E235">
-        <v>50.69297828584796</v>
+        <v>50.69297828584795</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4366,13 +4366,13 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>49.1861313964705</v>
+        <v>49.18613139647051</v>
       </c>
       <c r="C236">
         <v>50.80777477029645</v>
       </c>
       <c r="D236">
-        <v>53.84336758060593</v>
+        <v>53.84336758060592</v>
       </c>
       <c r="E236">
         <v>55.48183973613065</v>
@@ -4386,13 +4386,13 @@
         <v>395.0035822618312</v>
       </c>
       <c r="C237">
-        <v>506.8916649466797</v>
+        <v>506.8916649466796</v>
       </c>
       <c r="D237">
         <v>480.8108689170658</v>
       </c>
       <c r="E237">
-        <v>256.4595288873237</v>
+        <v>256.4595288873236</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4400,13 +4400,13 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>599.4119011707688</v>
+        <v>599.4119011707686</v>
       </c>
       <c r="C238">
         <v>652.2357727552078</v>
       </c>
       <c r="D238">
-        <v>626.3227709764252</v>
+        <v>626.3227709764253</v>
       </c>
       <c r="E238">
         <v>405.9208479006173</v>
@@ -4420,13 +4420,13 @@
         <v>9.034935967770449</v>
       </c>
       <c r="C239">
-        <v>11.67428700504018</v>
+        <v>11.67428700504017</v>
       </c>
       <c r="D239">
         <v>11.19638963143586</v>
       </c>
       <c r="E239">
-        <v>6.627179879074643</v>
+        <v>6.627179879074642</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4437,10 +4437,10 @@
         <v>590.3625087949346</v>
       </c>
       <c r="C240">
-        <v>489.0952666590314</v>
+        <v>489.0952666590313</v>
       </c>
       <c r="D240">
-        <v>623.6636750306856</v>
+        <v>623.6636750306857</v>
       </c>
       <c r="E240">
         <v>1031.488393632539</v>
@@ -4457,10 +4457,10 @@
         <v>6.612899456191706</v>
       </c>
       <c r="D241">
-        <v>9.002094508377825</v>
+        <v>9.002094508377827</v>
       </c>
       <c r="E241">
-        <v>13.97174293702763</v>
+        <v>13.97174293702762</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4468,13 +4468,13 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>159.9809685279553</v>
+        <v>159.9809685279552</v>
       </c>
       <c r="C242">
         <v>123.7019232626222</v>
       </c>
       <c r="D242">
-        <v>166.6387397966071</v>
+        <v>166.638739796607</v>
       </c>
       <c r="E242">
         <v>338.4200011701427</v>
@@ -4488,13 +4488,13 @@
         <v>312.1134329000807</v>
       </c>
       <c r="C243">
-        <v>340.6735328431211</v>
+        <v>340.673532843121</v>
       </c>
       <c r="D243">
         <v>451.624972640801</v>
       </c>
       <c r="E243">
-        <v>661.2527710878478</v>
+        <v>661.2527710878477</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4508,7 +4508,7 @@
         <v>314.6976927801109</v>
       </c>
       <c r="D244">
-        <v>419.7608761965165</v>
+        <v>419.7608761965164</v>
       </c>
       <c r="E244">
         <v>796.3957862294525</v>
@@ -4596,7 +4596,7 @@
         <v>1.007636012986301</v>
       </c>
       <c r="E249">
-        <v>0.9610814430919092</v>
+        <v>0.9610814430919091</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4607,7 +4607,7 @@
         <v>663.9833491985513</v>
       </c>
       <c r="C250">
-        <v>638.2357970077128</v>
+        <v>638.2357970077127</v>
       </c>
       <c r="D250">
         <v>715.283083627674</v>
@@ -4641,7 +4641,7 @@
         <v>769.0714055071038</v>
       </c>
       <c r="C252">
-        <v>780.3110466121306</v>
+        <v>780.3110466121303</v>
       </c>
       <c r="D252">
         <v>929.7721297643051</v>
@@ -4689,7 +4689,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>7.472548150599316</v>
+        <v>7.472548150599314</v>
       </c>
       <c r="C255">
         <v>8.033264604351107</v>
@@ -4698,7 +4698,7 @@
         <v>8.971801670736699</v>
       </c>
       <c r="E255">
-        <v>9.893357784411744</v>
+        <v>9.893357784411746</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4706,10 +4706,10 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>291.9423935031902</v>
+        <v>291.9423935031903</v>
       </c>
       <c r="C256">
-        <v>308.9597835138731</v>
+        <v>308.959783513873</v>
       </c>
       <c r="D256">
         <v>321.1024990208082</v>
@@ -4740,7 +4740,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>96.19811019093279</v>
+        <v>96.19811019093282</v>
       </c>
       <c r="C258">
         <v>103.2416645927624</v>
@@ -4760,7 +4760,7 @@
         <v>22.04540025208877</v>
       </c>
       <c r="C259">
-        <v>18.67136487315917</v>
+        <v>18.67136487315916</v>
       </c>
       <c r="D259">
         <v>19.24889124220469</v>
@@ -4783,7 +4783,7 @@
         <v>432.8218926441092</v>
       </c>
       <c r="E260">
-        <v>394.645355471109</v>
+        <v>394.6453554711091</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4811,7 +4811,7 @@
         <v>274.3044838070065</v>
       </c>
       <c r="C262">
-        <v>350.7623587182034</v>
+        <v>350.7623587182033</v>
       </c>
       <c r="D262">
         <v>452.1581232533374</v>
@@ -4848,10 +4848,10 @@
         <v>32.92008136506898</v>
       </c>
       <c r="D264">
-        <v>45.18662129470771</v>
+        <v>45.18662129470772</v>
       </c>
       <c r="E264">
-        <v>78.41612821527895</v>
+        <v>78.41612821527896</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4899,10 +4899,10 @@
         <v>32.92008136506899</v>
       </c>
       <c r="D267">
-        <v>51.15466561665024</v>
+        <v>51.15466561665025</v>
       </c>
       <c r="E267">
-        <v>74.15438211662249</v>
+        <v>74.1543821166225</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4913,10 +4913,10 @@
         <v>49.1220071803402</v>
       </c>
       <c r="C268">
-        <v>64.76225421780194</v>
+        <v>64.76225421780192</v>
       </c>
       <c r="D268">
-        <v>94.61918720073831</v>
+        <v>94.6191872007383</v>
       </c>
       <c r="E268">
         <v>99.2415364224381</v>
@@ -4961,10 +4961,10 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>32.98265201439436</v>
+        <v>32.98265201439435</v>
       </c>
       <c r="C271">
-        <v>29.78668253013028</v>
+        <v>29.78668253013027</v>
       </c>
       <c r="D271">
         <v>34.25690338159018</v>
@@ -4978,10 +4978,10 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>54.52234312583557</v>
+        <v>54.52234312583555</v>
       </c>
       <c r="C272">
-        <v>58.15495160644483</v>
+        <v>58.1549516064448</v>
       </c>
       <c r="D272">
         <v>73.29383979316968</v>
@@ -4998,10 +4998,10 @@
         <v>111.4091753480811</v>
       </c>
       <c r="C273">
-        <v>160.8735911059201</v>
+        <v>160.87359110592</v>
       </c>
       <c r="D273">
-        <v>185.6557608434609</v>
+        <v>185.6557608434608</v>
       </c>
       <c r="E273">
         <v>157.9731328583906</v>
@@ -5012,10 +5012,10 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>48.74151421478548</v>
+        <v>48.74151421478549</v>
       </c>
       <c r="C274">
-        <v>67.24345871623115</v>
+        <v>67.24345871623112</v>
       </c>
       <c r="D274">
         <v>92.82788042173043</v>
@@ -5032,13 +5032,13 @@
         <v>938.5142520221126</v>
       </c>
       <c r="C275">
-        <v>909.2973664474708</v>
+        <v>909.2973664474706</v>
       </c>
       <c r="D275">
         <v>1033.19758718381</v>
       </c>
       <c r="E275">
-        <v>907.8825154548572</v>
+        <v>907.882515454857</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5055,7 +5055,7 @@
         <v>37.02378277652518</v>
       </c>
       <c r="E276">
-        <v>57.11332734346037</v>
+        <v>57.11332734346038</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5063,13 +5063,13 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>99.4209520056894</v>
+        <v>99.42095200568939</v>
       </c>
       <c r="C277">
         <v>74.67045674974753</v>
       </c>
       <c r="D277">
-        <v>82.61064462302366</v>
+        <v>82.61064462302369</v>
       </c>
       <c r="E277">
         <v>100.9161657128682</v>
@@ -5123,7 +5123,7 @@
         <v>49.78434886766827</v>
       </c>
       <c r="E280">
-        <v>58.15433858227482</v>
+        <v>58.15433858227483</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5134,7 +5134,7 @@
         <v>253.6099926715403</v>
       </c>
       <c r="C281">
-        <v>286.2256045431712</v>
+        <v>286.2256045431711</v>
       </c>
       <c r="D281">
         <v>326.304792166664</v>
@@ -5148,7 +5148,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>9.317197824918024</v>
+        <v>9.317197824918026</v>
       </c>
       <c r="C282">
         <v>11.51541384356318</v>
@@ -5233,7 +5233,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>557.2896407796229</v>
+        <v>557.289640779623</v>
       </c>
       <c r="C287">
         <v>596.9436882927017</v>
@@ -5242,7 +5242,7 @@
         <v>681.0472674566757</v>
       </c>
       <c r="E287">
-        <v>770.7192816580308</v>
+        <v>770.7192816580306</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5253,13 +5253,13 @@
         <v>393.2739224270374</v>
       </c>
       <c r="C288">
-        <v>425.8228805237013</v>
+        <v>425.8228805237012</v>
       </c>
       <c r="D288">
-        <v>577.1965576444006</v>
+        <v>577.1965576444005</v>
       </c>
       <c r="E288">
-        <v>913.7012624153117</v>
+        <v>913.7012624153115</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5293,7 +5293,7 @@
         <v>146.7157162385788</v>
       </c>
       <c r="E290">
-        <v>315.4752257710601</v>
+        <v>315.47522577106</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5307,10 +5307,10 @@
         <v>197.4089896150665</v>
       </c>
       <c r="D291">
-        <v>295.4225513091532</v>
+        <v>295.4225513091531</v>
       </c>
       <c r="E291">
-        <v>484.7634260598454</v>
+        <v>484.7634260598455</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5321,10 +5321,10 @@
         <v>129.8424505111917</v>
       </c>
       <c r="C292">
-        <v>133.7387057121037</v>
+        <v>133.7387057121036</v>
       </c>
       <c r="D292">
-        <v>144.1228570474425</v>
+        <v>144.1228570474424</v>
       </c>
       <c r="E292">
         <v>152.4642025803904</v>
@@ -5344,7 +5344,7 @@
         <v>569.9272259373292</v>
       </c>
       <c r="E293">
-        <v>476.8143612053411</v>
+        <v>476.8143612053412</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5372,7 +5372,7 @@
         <v>376.1037016135568</v>
       </c>
       <c r="C295">
-        <v>427.8580020694207</v>
+        <v>427.8580020694206</v>
       </c>
       <c r="D295">
         <v>432.9065053308929</v>
@@ -5392,7 +5392,7 @@
         <v>391.7113549113434</v>
       </c>
       <c r="D296">
-        <v>401.224377624749</v>
+        <v>401.2243776247489</v>
       </c>
       <c r="E296">
         <v>324.6585017990857</v>
@@ -5412,7 +5412,7 @@
         <v>229.5673829759946</v>
       </c>
       <c r="E297">
-        <v>208.3932852804387</v>
+        <v>208.3932852804386</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5457,13 +5457,13 @@
         <v>243.9981787819236</v>
       </c>
       <c r="C300">
-        <v>278.5880255270667</v>
+        <v>278.5880255270666</v>
       </c>
       <c r="D300">
-        <v>264.9129360980091</v>
+        <v>264.912936098009</v>
       </c>
       <c r="E300">
-        <v>175.9431645262191</v>
+        <v>175.9431645262192</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5474,10 +5474,10 @@
         <v>359.7357550988183</v>
       </c>
       <c r="C301">
-        <v>391.0875557450376</v>
+        <v>391.0875557450377</v>
       </c>
       <c r="D301">
-        <v>363.7388539971009</v>
+        <v>363.7388539971008</v>
       </c>
       <c r="E301">
         <v>255.3119716331057</v>
@@ -5511,7 +5511,7 @@
         <v>50.78591416186583</v>
       </c>
       <c r="D303">
-        <v>51.56915650000798</v>
+        <v>51.56915650000797</v>
       </c>
       <c r="E303">
         <v>51.50196225319871</v>
@@ -5562,7 +5562,7 @@
         <v>300.8461130072938</v>
       </c>
       <c r="D306">
-        <v>301.5150056613017</v>
+        <v>301.5150056613016</v>
       </c>
       <c r="E306">
         <v>237.4170489955816</v>
@@ -5596,7 +5596,7 @@
         <v>5.733152058549717</v>
       </c>
       <c r="D308">
-        <v>5.908483751365576</v>
+        <v>5.908483751365577</v>
       </c>
       <c r="E308">
         <v>4.647788197817727</v>
@@ -5616,7 +5616,7 @@
         <v>152.4609774389068</v>
       </c>
       <c r="E309">
-        <v>180.7327016575362</v>
+        <v>180.7327016575361</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5624,13 +5624,13 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>202.277771877008</v>
+        <v>202.2777718770079</v>
       </c>
       <c r="C310">
-        <v>239.2705405897677</v>
+        <v>239.2705405897676</v>
       </c>
       <c r="D310">
-        <v>278.5083820580945</v>
+        <v>278.5083820580944</v>
       </c>
       <c r="E310">
         <v>314.8971421489756</v>
@@ -5684,7 +5684,7 @@
         <v>23.08914580006373</v>
       </c>
       <c r="E313">
-        <v>27.41047933164766</v>
+        <v>27.41047933164765</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5701,7 +5701,7 @@
         <v>27.70697496007647</v>
       </c>
       <c r="E314">
-        <v>21.14522691298534</v>
+        <v>21.14522691298533</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5709,13 +5709,13 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>799.0606918981198</v>
+        <v>799.0606918981201</v>
       </c>
       <c r="C315">
         <v>773.2889344471898</v>
       </c>
       <c r="D315">
-        <v>815.3753596686278</v>
+        <v>815.3753596686277</v>
       </c>
       <c r="E315">
         <v>944.7077302907995</v>
@@ -5726,16 +5726,16 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>359.593973170426</v>
+        <v>359.5939731704261</v>
       </c>
       <c r="C316">
-        <v>388.5914918810764</v>
+        <v>388.5914918810763</v>
       </c>
       <c r="D316">
         <v>370.9214536212968</v>
       </c>
       <c r="E316">
-        <v>309.7506948128769</v>
+        <v>309.750694812877</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5743,10 +5743,10 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>703.9160996559053</v>
+        <v>703.9160996559054</v>
       </c>
       <c r="C317">
-        <v>693.2070593675787</v>
+        <v>693.2070593675786</v>
       </c>
       <c r="D317">
         <v>730.7125681666107</v>
@@ -5760,7 +5760,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>562.8460774197547</v>
+        <v>562.8460774197548</v>
       </c>
       <c r="C318">
         <v>633.6623443574226</v>
@@ -5797,10 +5797,10 @@
         <v>342.7964787745801</v>
       </c>
       <c r="C320">
-        <v>332.1779935612495</v>
+        <v>332.1779935612494</v>
       </c>
       <c r="D320">
-        <v>361.7713234085868</v>
+        <v>361.7713234085867</v>
       </c>
       <c r="E320">
         <v>409.0139255114561</v>
@@ -5811,16 +5811,16 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>549.8368430411966</v>
+        <v>549.8368430411967</v>
       </c>
       <c r="C321">
-        <v>645.431404626939</v>
+        <v>645.4314046269388</v>
       </c>
       <c r="D321">
         <v>660.9319361769182</v>
       </c>
       <c r="E321">
-        <v>553.8812522089337</v>
+        <v>553.8812522089336</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5831,10 +5831,10 @@
         <v>46.06117193725933</v>
       </c>
       <c r="C322">
-        <v>45.31620077339753</v>
+        <v>45.31620077339752</v>
       </c>
       <c r="D322">
-        <v>44.68729265834805</v>
+        <v>44.68729265834804</v>
       </c>
       <c r="E322">
         <v>48.98907393756052</v>
@@ -5848,13 +5848,13 @@
         <v>480.2959873904005</v>
       </c>
       <c r="C323">
-        <v>527.3976448059526</v>
+        <v>527.3976448059525</v>
       </c>
       <c r="D323">
-        <v>599.6653920579249</v>
+        <v>599.6653920579248</v>
       </c>
       <c r="E323">
-        <v>665.1847930272532</v>
+        <v>665.184793027253</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5885,10 +5885,10 @@
         <v>440.1515660183507</v>
       </c>
       <c r="D325">
-        <v>540.778446847654</v>
+        <v>540.7784468476539</v>
       </c>
       <c r="E325">
-        <v>808.9593447349221</v>
+        <v>808.959344734922</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5896,7 +5896,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>355.1448702733886</v>
+        <v>355.1448702733887</v>
       </c>
       <c r="C326">
         <v>315.9300886345493</v>
@@ -5936,7 +5936,7 @@
         <v>22.53435307176316</v>
       </c>
       <c r="D328">
-        <v>21.7579016311744</v>
+        <v>21.75790163117438</v>
       </c>
       <c r="E328">
         <v>20.86223348309485</v>
@@ -5950,10 +5950,10 @@
         <v>60.87056362399665</v>
       </c>
       <c r="C329">
-        <v>74.93198967646356</v>
+        <v>74.93198967646353</v>
       </c>
       <c r="D329">
-        <v>66.4809245115429</v>
+        <v>66.48092451154288</v>
       </c>
       <c r="E329">
         <v>46.39896909769363</v>
@@ -5967,7 +5967,7 @@
         <v>40.21911471744708</v>
       </c>
       <c r="C330">
-        <v>38.44095524006657</v>
+        <v>38.44095524006656</v>
       </c>
       <c r="D330">
         <v>42.30703094950577</v>
@@ -5998,10 +5998,10 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>940.5392854338747</v>
+        <v>940.539285433875</v>
       </c>
       <c r="C332">
-        <v>867.6990553975603</v>
+        <v>867.6990553975602</v>
       </c>
       <c r="D332">
         <v>966.1230885763621</v>
@@ -6015,7 +6015,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>444.6551638678593</v>
+        <v>444.6551638678594</v>
       </c>
       <c r="C333">
         <v>440.2528727778748</v>
@@ -6038,7 +6038,7 @@
         <v>422.6767445315674</v>
       </c>
       <c r="D334">
-        <v>429.7705756382624</v>
+        <v>429.7705756382625</v>
       </c>
       <c r="E334">
         <v>569.6896596403511</v>
@@ -6049,13 +6049,13 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>553.9960858190223</v>
+        <v>553.9960858190221</v>
       </c>
       <c r="C335">
-        <v>552.0066699690643</v>
+        <v>552.0066699690642</v>
       </c>
       <c r="D335">
-        <v>621.86370556793</v>
+        <v>621.8637055679299</v>
       </c>
       <c r="E335">
         <v>877.4397754838924</v>
@@ -6069,10 +6069,10 @@
         <v>57.79175800837849</v>
       </c>
       <c r="C336">
-        <v>54.51947490563397</v>
+        <v>54.51947490563396</v>
       </c>
       <c r="D336">
-        <v>71.1497278978093</v>
+        <v>71.14972789780929</v>
       </c>
       <c r="E336">
         <v>148.6296774790202</v>
@@ -6083,7 +6083,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>334.6524750445436</v>
+        <v>334.6524750445437</v>
       </c>
       <c r="C337">
         <v>310.0103339075587</v>
@@ -6100,10 +6100,10 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>284.5620161614233</v>
+        <v>284.5620161614234</v>
       </c>
       <c r="C338">
-        <v>296.3413506631478</v>
+        <v>296.3413506631476</v>
       </c>
       <c r="D338">
         <v>273.348625274935</v>
@@ -6123,7 +6123,7 @@
         <v>504.1430187331659</v>
       </c>
       <c r="D339">
-        <v>568.7918000161653</v>
+        <v>568.7918000161652</v>
       </c>
       <c r="E339">
         <v>486.891505872419</v>
@@ -6160,7 +6160,7 @@
         <v>103.4738543585318</v>
       </c>
       <c r="E341">
-        <v>189.3777564140388</v>
+        <v>189.3777564140387</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6174,7 +6174,7 @@
         <v>51.79042832076934</v>
       </c>
       <c r="D342">
-        <v>70.7034467242964</v>
+        <v>70.70344672429638</v>
       </c>
       <c r="E342">
         <v>103.5510382266216</v>
@@ -6228,7 +6228,7 @@
         <v>110.6542387124835</v>
       </c>
       <c r="E345">
-        <v>85.65651183796739</v>
+        <v>85.65651183796737</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6256,7 +6256,7 @@
         <v>15.27719896098044</v>
       </c>
       <c r="C347">
-        <v>14.53673877594174</v>
+        <v>14.53673877594173</v>
       </c>
       <c r="D347">
         <v>19.4618007785775</v>
@@ -6276,7 +6276,7 @@
         <v>93.60380352492153</v>
       </c>
       <c r="D348">
-        <v>95.42561115250274</v>
+        <v>95.42561115250275</v>
       </c>
       <c r="E348">
         <v>70.55843507342659</v>
@@ -6310,7 +6310,7 @@
         <v>42.37469483898474</v>
       </c>
       <c r="D350">
-        <v>50.47876531980216</v>
+        <v>50.47876531980219</v>
       </c>
       <c r="E350">
         <v>56.58646773215401</v>
@@ -6347,7 +6347,7 @@
         <v>44.10010398593477</v>
       </c>
       <c r="E352">
-        <v>52.82800918903316</v>
+        <v>52.82800918903317</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6364,7 +6364,7 @@
         <v>532.0280068589758</v>
       </c>
       <c r="E353">
-        <v>460.8456990084612</v>
+        <v>460.8456990084611</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6375,7 +6375,7 @@
         <v>149.6300689626436</v>
       </c>
       <c r="C354">
-        <v>187.6484730757782</v>
+        <v>187.6484730757781</v>
       </c>
       <c r="D354">
         <v>157.902022092388</v>
@@ -6409,7 +6409,7 @@
         <v>146.5082025223272</v>
       </c>
       <c r="C356">
-        <v>138.1230024678782</v>
+        <v>138.1230024678783</v>
       </c>
       <c r="D356">
         <v>137.3231297826356</v>
@@ -6443,10 +6443,10 @@
         <v>50.27242243413188</v>
       </c>
       <c r="C358">
-        <v>48.63486002390079</v>
+        <v>48.6348600239008</v>
       </c>
       <c r="D358">
-        <v>58.65560819861323</v>
+        <v>58.65560819861322</v>
       </c>
       <c r="E358">
         <v>72.69878639120246</v>
@@ -6463,7 +6463,7 @@
         <v>66.55100248744013</v>
       </c>
       <c r="D359">
-        <v>77.89345537743965</v>
+        <v>77.89345537743962</v>
       </c>
       <c r="E359">
         <v>53.56086467012524</v>
@@ -6491,13 +6491,13 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>932.4886772636014</v>
+        <v>932.4886772636015</v>
       </c>
       <c r="C361">
         <v>1117.817358121116</v>
       </c>
       <c r="D361">
-        <v>1337.875354728189</v>
+        <v>1337.875354728188</v>
       </c>
       <c r="E361">
         <v>1458.161962349923</v>
@@ -6542,13 +6542,13 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>440.6681104566865</v>
+        <v>440.6681104566863</v>
       </c>
       <c r="C364">
-        <v>472.5936014139371</v>
+        <v>472.593601413937</v>
       </c>
       <c r="D364">
-        <v>531.8344107212617</v>
+        <v>531.8344107212616</v>
       </c>
       <c r="E364">
         <v>564.6340528717412</v>
@@ -6559,10 +6559,10 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>16.04145155838045</v>
+        <v>16.04145155838044</v>
       </c>
       <c r="C365">
-        <v>5.181947383924749</v>
+        <v>5.181947383924747</v>
       </c>
       <c r="D365">
         <v>7.707745082916837</v>
@@ -6582,7 +6582,7 @@
         <v>10.86115732263135</v>
       </c>
       <c r="D366">
-        <v>13.10880015127159</v>
+        <v>13.10880015127158</v>
       </c>
       <c r="E366">
         <v>15.38324447693428</v>
@@ -6602,7 +6602,7 @@
         <v>29.24270802975969</v>
       </c>
       <c r="E367">
-        <v>36.53520563271892</v>
+        <v>36.53520563271891</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6613,7 +6613,7 @@
         <v>38.6750320801106</v>
       </c>
       <c r="C368">
-        <v>37.91746814470832</v>
+        <v>37.91746814470831</v>
       </c>
       <c r="D368">
         <v>52.95114639297486</v>
@@ -6633,7 +6633,7 @@
         <v>6.335675104868285</v>
       </c>
       <c r="D369">
-        <v>9.07532318164956</v>
+        <v>9.075323181649559</v>
       </c>
       <c r="E369">
         <v>14.42179169712589</v>
@@ -6681,13 +6681,13 @@
         <v>61.96238413224192</v>
       </c>
       <c r="C372">
-        <v>77.41239537588628</v>
+        <v>77.41239537588626</v>
       </c>
       <c r="D372">
         <v>113.7352701094481</v>
       </c>
       <c r="E372">
-        <v>160.5057932103348</v>
+        <v>160.5057932103347</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6695,10 +6695,10 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>619.7153529191036</v>
+        <v>619.7153529191037</v>
       </c>
       <c r="C373">
-        <v>705.7777435020078</v>
+        <v>705.7777435020076</v>
       </c>
       <c r="D373">
         <v>761.9196852968463</v>
@@ -6721,7 +6721,7 @@
         <v>417.2742990099673</v>
       </c>
       <c r="E374">
-        <v>283.298357603816</v>
+        <v>283.2983576038159</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>25.44048980511849</v>
       </c>
       <c r="D376">
-        <v>35.56420092305465</v>
+        <v>35.56420092305466</v>
       </c>
       <c r="E376">
         <v>58.2337937965723</v>
@@ -6789,7 +6789,7 @@
         <v>739.7410246422332</v>
       </c>
       <c r="E378">
-        <v>647.4729542231042</v>
+        <v>647.4729542231041</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6823,7 +6823,7 @@
         <v>3.172461293443846</v>
       </c>
       <c r="E380">
-        <v>2.897336429960891</v>
+        <v>2.89733642996089</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6848,7 +6848,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>37.05575274011735</v>
+        <v>37.05575274011736</v>
       </c>
       <c r="C382">
         <v>42.18438231684974</v>
@@ -6857,7 +6857,7 @@
         <v>46.4671696892131</v>
       </c>
       <c r="E382">
-        <v>39.01795266629248</v>
+        <v>39.01795266629247</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6871,7 +6871,7 @@
         <v>514.501084523162</v>
       </c>
       <c r="D383">
-        <v>553.0056703825107</v>
+        <v>553.0056703825106</v>
       </c>
       <c r="E383">
         <v>473.1864326523382</v>
@@ -6891,7 +6891,7 @@
         <v>2.976900580671078</v>
       </c>
       <c r="E384">
-        <v>2.799940967398449</v>
+        <v>2.799940967398448</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6919,7 +6919,7 @@
         <v>95.44090855329956</v>
       </c>
       <c r="C386">
-        <v>120.6532552988783</v>
+        <v>120.6532552988782</v>
       </c>
       <c r="D386">
         <v>140.0536662507306</v>
@@ -6933,10 +6933,10 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>65.49866273265657</v>
+        <v>65.49866273265658</v>
       </c>
       <c r="C387">
-        <v>85.34010740652366</v>
+        <v>85.34010740652364</v>
       </c>
       <c r="D387">
         <v>117.1690802620492</v>
@@ -6950,10 +6950,10 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>712.8656380146236</v>
+        <v>712.8656380146233</v>
       </c>
       <c r="C388">
-        <v>644.8733694069964</v>
+        <v>644.8733694069966</v>
       </c>
       <c r="D388">
         <v>611.4105993015575</v>
@@ -6967,7 +6967,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>32.69747374710852</v>
+        <v>32.69747374710851</v>
       </c>
       <c r="C389">
         <v>27.49327724560824</v>
@@ -6984,7 +6984,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>29.36099683413826</v>
+        <v>29.36099683413825</v>
       </c>
       <c r="C390">
         <v>25.87602564292539</v>
@@ -7001,13 +7001,13 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>57.1435381174047</v>
+        <v>57.14353811740469</v>
       </c>
       <c r="C391">
-        <v>46.86908026338065</v>
+        <v>46.86908026338066</v>
       </c>
       <c r="D391">
-        <v>55.6893642700364</v>
+        <v>55.68936427003641</v>
       </c>
       <c r="E391">
         <v>77.20331759562879</v>
@@ -7018,7 +7018,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>18.68427071263344</v>
+        <v>18.68427071263343</v>
       </c>
       <c r="C392">
         <v>15.63343215926743</v>
@@ -7052,7 +7052,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>29.53454309053858</v>
+        <v>29.53454309053857</v>
       </c>
       <c r="C394">
         <v>23.09399724769733</v>
@@ -7103,10 +7103,10 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>52.35625661477957</v>
+        <v>52.35625661477956</v>
       </c>
       <c r="C397">
-        <v>47.20510102599981</v>
+        <v>47.20510102599982</v>
       </c>
       <c r="D397">
         <v>49.75452692188453</v>
@@ -7140,7 +7140,7 @@
         <v>615.4112205912405</v>
       </c>
       <c r="C399">
-        <v>503.6885715639017</v>
+        <v>503.6885715639016</v>
       </c>
       <c r="D399">
         <v>623.0290708810063</v>
@@ -7208,7 +7208,7 @@
         <v>56.70957192037667</v>
       </c>
       <c r="C403">
-        <v>42.88432146422995</v>
+        <v>42.88432146422994</v>
       </c>
       <c r="D403">
         <v>69.59605489752516</v>
@@ -7276,13 +7276,13 @@
         <v>100.1059014877211</v>
       </c>
       <c r="C407">
-        <v>76.24781823083734</v>
+        <v>76.24781823083732</v>
       </c>
       <c r="D407">
         <v>93.94720789635355</v>
       </c>
       <c r="E407">
-        <v>90.88070367594834</v>
+        <v>90.88070367594835</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7330,7 +7330,7 @@
         <v>492.5719909307477</v>
       </c>
       <c r="D410">
-        <v>589.2190050790833</v>
+        <v>589.2190050790832</v>
       </c>
       <c r="E410">
         <v>566.8701607426627</v>
@@ -7344,10 +7344,10 @@
         <v>13.12718900544278</v>
       </c>
       <c r="C411">
-        <v>8.262610897910768</v>
+        <v>8.262610897910767</v>
       </c>
       <c r="D411">
-        <v>13.4114425542513</v>
+        <v>13.41144255425129</v>
       </c>
       <c r="E411">
         <v>44.55466267074562</v>
@@ -7361,10 +7361,10 @@
         <v>2.187864834240463</v>
       </c>
       <c r="C412">
-        <v>2.065652724477692</v>
+        <v>2.065652724477691</v>
       </c>
       <c r="D412">
-        <v>2.514645478922119</v>
+        <v>2.514645478922118</v>
       </c>
       <c r="E412">
         <v>2.62086251004386</v>
@@ -7378,13 +7378,13 @@
         <v>16.68556019070414</v>
       </c>
       <c r="C413">
-        <v>12.78624458916591</v>
+        <v>12.7862445891659</v>
       </c>
       <c r="D413">
         <v>19.68066000776927</v>
       </c>
       <c r="E413">
-        <v>44.25405313883624</v>
+        <v>44.25405313883623</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7418,7 +7418,7 @@
         <v>208.5748461087754</v>
       </c>
       <c r="E415">
-        <v>240.1353675129315</v>
+        <v>240.1353675129314</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7483,7 +7483,7 @@
         <v>45.2852474079428</v>
       </c>
       <c r="D419">
-        <v>48.31309303573874</v>
+        <v>48.31309303573872</v>
       </c>
       <c r="E419">
         <v>46.96757685246261</v>
@@ -7514,10 +7514,10 @@
         <v>98.53155418477121</v>
       </c>
       <c r="C421">
-        <v>95.95294780234136</v>
+        <v>95.95294780234137</v>
       </c>
       <c r="D421">
-        <v>91.76042561948842</v>
+        <v>91.7604256194884</v>
       </c>
       <c r="E421">
         <v>66.86401960296939</v>
@@ -7534,7 +7534,7 @@
         <v>36.49744026837524</v>
       </c>
       <c r="D422">
-        <v>41.29219152876979</v>
+        <v>41.29219152876978</v>
       </c>
       <c r="E422">
         <v>38.89029711601282</v>
@@ -7551,10 +7551,10 @@
         <v>84.90983888989277</v>
       </c>
       <c r="D423">
-        <v>81.82056078633173</v>
+        <v>81.8205607863317</v>
       </c>
       <c r="E423">
-        <v>62.09272872020481</v>
+        <v>62.0927287202048</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7562,13 +7562,13 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>88.92910949301647</v>
+        <v>88.92910949301644</v>
       </c>
       <c r="C424">
         <v>101.8918066678713</v>
       </c>
       <c r="D424">
-        <v>97.40542950753775</v>
+        <v>97.40542950753773</v>
       </c>
       <c r="E424">
         <v>63.68484996944084</v>
@@ -7588,7 +7588,7 @@
         <v>15.07492706605881</v>
       </c>
       <c r="E425">
-        <v>6.140573228844128</v>
+        <v>6.140573228844129</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7596,7 +7596,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>28.68680951387628</v>
+        <v>28.68680951387627</v>
       </c>
       <c r="C426">
         <v>19.81229574097498</v>
@@ -7636,7 +7636,7 @@
         <v>76.37384436332498</v>
       </c>
       <c r="D428">
-        <v>85.79776607974338</v>
+        <v>85.79776607974337</v>
       </c>
       <c r="E428">
         <v>82.47349149895192</v>
@@ -7670,7 +7670,7 @@
         <v>36.79426351895353</v>
       </c>
       <c r="D430">
-        <v>38.1829283669548</v>
+        <v>38.18292836695479</v>
       </c>
       <c r="E430">
         <v>31.04636436010241</v>
@@ -7684,10 +7684,10 @@
         <v>96.59956292624628</v>
       </c>
       <c r="C431">
-        <v>94.77561101949054</v>
+        <v>94.77561101949055</v>
       </c>
       <c r="D431">
-        <v>97.65931012359839</v>
+        <v>97.65931012359837</v>
       </c>
       <c r="E431">
         <v>80.5097378892897</v>
@@ -7698,7 +7698,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>96.81798210933245</v>
+        <v>96.81798210933242</v>
       </c>
       <c r="C432">
         <v>109.6752085661115</v>
@@ -7735,13 +7735,13 @@
         <v>14.81371998524375</v>
       </c>
       <c r="C434">
-        <v>20.13831865941441</v>
+        <v>20.13831865941442</v>
       </c>
       <c r="D434">
         <v>26.2673466201224</v>
       </c>
       <c r="E434">
-        <v>24.58513349241103</v>
+        <v>24.58513349241102</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7755,7 +7755,7 @@
         <v>16.98196777797855</v>
       </c>
       <c r="D435">
-        <v>18.70184246544725</v>
+        <v>18.70184246544724</v>
       </c>
       <c r="E435">
         <v>16.71727311697822</v>
@@ -7772,7 +7772,7 @@
         <v>44.29297004404199</v>
       </c>
       <c r="D436">
-        <v>47.10164663941062</v>
+        <v>47.10164663941061</v>
       </c>
       <c r="E436">
         <v>48.06005601160373</v>
@@ -7783,13 +7783,13 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>36.34730808028557</v>
+        <v>36.34730808028556</v>
       </c>
       <c r="C437">
         <v>40.44981864280253</v>
       </c>
       <c r="D437">
-        <v>48.65279419589333</v>
+        <v>48.65279419589334</v>
       </c>
       <c r="E437">
         <v>48.48247764572895</v>
@@ -7800,7 +7800,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>28.59321568982465</v>
+        <v>28.59321568982464</v>
       </c>
       <c r="C438">
         <v>37.62773827237444</v>
@@ -7809,7 +7809,7 @@
         <v>39.35956384386876</v>
       </c>
       <c r="E438">
-        <v>25.11742817790777</v>
+        <v>25.11742817790778</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7817,7 +7817,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>13.08503090890281</v>
+        <v>13.0850309089028</v>
       </c>
       <c r="C439">
         <v>12.69936166692638</v>
@@ -7837,7 +7837,7 @@
         <v>29.07784646422845</v>
       </c>
       <c r="C440">
-        <v>33.39461771673232</v>
+        <v>33.39461771673233</v>
       </c>
       <c r="D440">
         <v>32.25297592761468</v>
@@ -7851,7 +7851,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>11.14650781128758</v>
+        <v>11.14650781128757</v>
       </c>
       <c r="C441">
         <v>10.34762802490297</v>
@@ -7888,7 +7888,7 @@
         <v>12.600400134499</v>
       </c>
       <c r="C443">
-        <v>12.69936166692637</v>
+        <v>12.69936166692638</v>
       </c>
       <c r="D443">
         <v>13.11985461462292</v>
@@ -7902,7 +7902,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>15.02355400651804</v>
+        <v>15.02355400651803</v>
       </c>
       <c r="C444">
         <v>15.99178876575914</v>
@@ -7919,10 +7919,10 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="C445">
-        <v>0.4703467284046804</v>
+        <v>0.4703467284046806</v>
       </c>
       <c r="D445">
         <v>0.5466606089426217</v>
@@ -7953,10 +7953,10 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="C447">
-        <v>0.4703467284046804</v>
+        <v>0.4703467284046806</v>
       </c>
       <c r="D447">
         <v>0.5466606089426217</v>
@@ -7970,16 +7970,16 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>7.046064092011538</v>
+        <v>7.046064092011537</v>
       </c>
       <c r="C448">
-        <v>7.058927925907048</v>
+        <v>7.058927925907049</v>
       </c>
       <c r="D448">
         <v>7.363015194763791</v>
       </c>
       <c r="E448">
-        <v>9.673997286921434</v>
+        <v>9.673997286921431</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7987,10 +7987,10 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>51.08396466708365</v>
+        <v>51.08396466708364</v>
       </c>
       <c r="C449">
-        <v>54.70669142577962</v>
+        <v>54.70669142577963</v>
       </c>
       <c r="D449">
         <v>53.38186016203748</v>
@@ -8007,7 +8007,7 @@
         <v>27.30349835654471</v>
       </c>
       <c r="C450">
-        <v>21.17678377772114</v>
+        <v>21.17678377772115</v>
       </c>
       <c r="D450">
         <v>21.1686686849459</v>
@@ -8024,7 +8024,7 @@
         <v>43.15714256357067</v>
       </c>
       <c r="C451">
-        <v>45.00066552765743</v>
+        <v>45.00066552765744</v>
       </c>
       <c r="D451">
         <v>54.30223706138295</v>
@@ -8047,7 +8047,7 @@
         <v>46.93922186661916</v>
       </c>
       <c r="E452">
-        <v>60.68234661796172</v>
+        <v>60.6823466179617</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8064,7 +8064,7 @@
         <v>46.93922186661917</v>
       </c>
       <c r="E453">
-        <v>87.94542988110393</v>
+        <v>87.94542988110392</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,7 +8072,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>39.42477318703299</v>
+        <v>39.42477318703298</v>
       </c>
       <c r="C454">
         <v>37.3707960659648</v>
@@ -8089,7 +8089,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>19.7123865935165</v>
+        <v>19.71238659351649</v>
       </c>
       <c r="C455">
         <v>16.77872476431073</v>
@@ -8211,7 +8211,7 @@
         <v>5.840707138819702</v>
       </c>
       <c r="C462">
-        <v>6.101354459749356</v>
+        <v>6.101354459749355</v>
       </c>
       <c r="D462">
         <v>6.849328740847138</v>
@@ -8225,7 +8225,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>48.25660057090564</v>
+        <v>48.25660057090563</v>
       </c>
       <c r="C463">
         <v>48.93857988329562</v>
@@ -8242,7 +8242,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>38.45447857994044</v>
+        <v>38.45447857994043</v>
       </c>
       <c r="C464">
         <v>44.48961807572329</v>
@@ -8259,7 +8259,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>2.370195197639</v>
+        <v>2.370195197638999</v>
       </c>
       <c r="C465">
         <v>2.796988702696447</v>
@@ -8299,7 +8299,7 @@
         <v>20.02032813407548</v>
       </c>
       <c r="D467">
-        <v>22.66356085125297</v>
+        <v>22.66356085125296</v>
       </c>
       <c r="E467">
         <v>18.59696376937151</v>
@@ -8313,13 +8313,13 @@
         <v>28.18425636804615</v>
       </c>
       <c r="C468">
-        <v>18.529685805506</v>
+        <v>18.52968580550601</v>
       </c>
       <c r="D468">
         <v>23.00942248363685</v>
       </c>
       <c r="E468">
-        <v>47.49053213579613</v>
+        <v>47.49053213579612</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8344,7 +8344,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>35.2303204600577</v>
+        <v>35.23032046005768</v>
       </c>
       <c r="C470">
         <v>27.35334571288981</v>
@@ -8353,7 +8353,7 @@
         <v>30.37243767840064</v>
       </c>
       <c r="E470">
-        <v>44.85216923936301</v>
+        <v>44.852169239363</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8361,7 +8361,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>8.294103223124408</v>
+        <v>8.294103223124406</v>
       </c>
       <c r="C471">
         <v>7.414936345953883</v>
@@ -8435,7 +8435,7 @@
         <v>28.07300918284351</v>
       </c>
       <c r="D475">
-        <v>31.40109775960708</v>
+        <v>31.40109775960707</v>
       </c>
       <c r="E475">
         <v>35.33827647912038</v>
@@ -8452,7 +8452,7 @@
         <v>37.1228828066275</v>
       </c>
       <c r="D476">
-        <v>47.39230578000456</v>
+        <v>47.39230578000455</v>
       </c>
       <c r="E476">
         <v>49.04161454054842</v>
@@ -8489,7 +8489,7 @@
         <v>99.9008263649112</v>
       </c>
       <c r="E478">
-        <v>69.88351116783093</v>
+        <v>69.88351116783092</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8514,7 +8514,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>13.46297267021073</v>
+        <v>13.46297267021072</v>
       </c>
       <c r="C480">
         <v>11.95869148400193</v>
@@ -8557,7 +8557,7 @@
         <v>90.59329595824245</v>
       </c>
       <c r="E482">
-        <v>86.86455126468705</v>
+        <v>86.86455126468702</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8591,7 +8591,7 @@
         <v>203.5246648924899</v>
       </c>
       <c r="E484">
-        <v>186.7914410654173</v>
+        <v>186.7914410654172</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8599,13 +8599,13 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>36.18173905119133</v>
+        <v>36.18173905119132</v>
       </c>
       <c r="C485">
         <v>25.32428784847467</v>
       </c>
       <c r="D485">
-        <v>31.52880405905587</v>
+        <v>31.52880405905586</v>
       </c>
       <c r="E485">
         <v>55.09914989528578</v>
@@ -8622,10 +8622,10 @@
         <v>83.52732785267145</v>
       </c>
       <c r="D486">
-        <v>85.91516962253694</v>
+        <v>85.91516962253691</v>
       </c>
       <c r="E486">
-        <v>76.72793725881492</v>
+        <v>76.7279372588149</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8633,16 +8633,16 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>73.62754832201223</v>
+        <v>73.6275483220122</v>
       </c>
       <c r="C487">
         <v>56.24997271812155</v>
       </c>
       <c r="D487">
-        <v>58.43075703481675</v>
+        <v>58.43075703481674</v>
       </c>
       <c r="E487">
-        <v>66.57251448410979</v>
+        <v>66.57251448410977</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8684,7 +8684,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>90.57097866750586</v>
+        <v>90.57097866750583</v>
       </c>
       <c r="C490">
         <v>98.84238143526868</v>
@@ -8693,7 +8693,7 @@
         <v>89.96490820582738</v>
       </c>
       <c r="E490">
-        <v>59.67086969723713</v>
+        <v>59.67086969723712</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8701,13 +8701,13 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>6.978960170705068</v>
+        <v>6.978960170705063</v>
       </c>
       <c r="C491">
         <v>6.366046655428168</v>
       </c>
       <c r="D491">
-        <v>6.460019730587347</v>
+        <v>6.460019730587346</v>
       </c>
       <c r="E491">
         <v>5.336643790192579</v>
@@ -8769,16 +8769,16 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>0.9570737089807837</v>
+        <v>0.9570737089807836</v>
       </c>
       <c r="C495">
-        <v>0.9246147437403328</v>
+        <v>0.9246147437403327</v>
       </c>
       <c r="D495">
-        <v>0.9555655925095379</v>
+        <v>0.9555655925095378</v>
       </c>
       <c r="E495">
-        <v>0.9122009035178514</v>
+        <v>0.9122009035178517</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8789,7 +8789,7 @@
         <v>1.01948303406795</v>
       </c>
       <c r="C496">
-        <v>0.9876698800851825</v>
+        <v>0.9876698800851824</v>
       </c>
       <c r="D496">
         <v>0.9928833322068789</v>
@@ -8803,7 +8803,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>60.29564366578937</v>
+        <v>60.29564366578936</v>
       </c>
       <c r="C497">
         <v>54.55226988067963</v>
@@ -8812,7 +8812,7 @@
         <v>55.4228043655532</v>
       </c>
       <c r="E497">
-        <v>54.73205421107109</v>
+        <v>54.7320542110711</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8843,10 +8843,10 @@
         <v>35.37964929662444</v>
       </c>
       <c r="D499">
-        <v>38.605699649914</v>
+        <v>38.60569964991399</v>
       </c>
       <c r="E499">
-        <v>44.40573641603266</v>
+        <v>44.40573641603265</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8857,10 +8857,10 @@
         <v>16.94381429123128</v>
       </c>
       <c r="C500">
-        <v>18.62086805085497</v>
+        <v>18.62086805085496</v>
       </c>
       <c r="D500">
-        <v>18.38366649995905</v>
+        <v>18.38366649995904</v>
       </c>
       <c r="E500">
         <v>16.54331356675726</v>
